--- a/biology/Médecine/Hôpital_de_Charlottetown/Hôpital_de_Charlottetown.xlsx
+++ b/biology/Médecine/Hôpital_de_Charlottetown/Hôpital_de_Charlottetown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Charlottetown</t>
+          <t>Hôpital_de_Charlottetown</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital de Charlottetown est un ancien hôpital de soins intensifs qui était situé à Charlottetown, Île-du-Prince-Édouard. Il a été le premier hôpital public établi dans la province.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Charlottetown</t>
+          <t>Hôpital_de_Charlottetown</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Établissement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La construction se fit en 1879 sous la tutelle de l'évêque Peter McIntyre du Diocèse catholique romain de Charlottetown. C'était le premier hôpital de Charlottetown. Il fut établi dans l'ancienne résidence de l'évêque, maintenant le site de la Basilique-cathédrale Saint-Dunstan au coin des rues Dorchester et Great George. Une grande annexe fut construite en 1882 et l'hôpital fut ouvert aux gens de toutes les religions.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Charlottetown</t>
+          <t>Hôpital_de_Charlottetown</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Nouvelles installations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'usage croissant de l'Hôpital de Charlottetown surpassa la grosseur de l'hôpital de la rue Great George. En 1902, le diocèse de Charlottetown déménagea l'hôpital aux plus grands quartiers sur la rue Haviland dans l'ouest de la ville. Un nouveau département de maternité fut ouvert en 1918 et l'École d'infirmières à l'hôpital en 1920.
 L'Hôpital de Charlottetown était administré par les Sœurs de la Charité de Montréal de 1879 à 1925. Les Sœurs de Sainte Marthe de Charlottetown ont pris en charge l'administration de l'Hôpital de Charlottetown et l'orphelinat St Vincent, une autre responsabilité du diocèse de Charlottetown.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Charlottetown</t>
+          <t>Hôpital_de_Charlottetown</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Administration du gouvernement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1969, le gouvernement provincial pris en charge les opérations de santé du diocèse de Charlottetown comme une partie du plan de développement provincial sous le premier ministre Alex Campbell. L'Hôpital de l'Île-du-Prince-Édouard et l'Hôpital de Charlottetown furent identifiés pour être remplacés par un endroit unique plus moderne.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Charlottetown</t>
+          <t>Hôpital_de_Charlottetown</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Fermeture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1982, après 102 ans de service, l'Hôpital de Charlottetown a fermé ses portes quand l'Hôpital Queen Elizabeth ouvrit.
 La fermeture de l'Hôpital de Charlottetown et de l'Hôpital de l'Île-du-Prince-Édouard mis la fin des services à l'avortement dans la province offert dans la dernière institution ; l'une des conditions que l'Église catholique a imposé au gouvernement provincial pour fusionner les deux hôpitaux dans l'Hôpital Queen Elizabeth, que tous les services de l'avortement dans la province furent arrêtés.
